--- a/Время работы сортировок.xlsx
+++ b/Время работы сортировок.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\Documents\Sorts_Research_10IPh\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,6 +23,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+  <si>
+    <t>Sort1(выбором)</t>
+  </si>
+  <si>
+    <t>Номер забега</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Sort2(обменом)</t>
+  </si>
+  <si>
+    <t>Sort3(вставка)</t>
+  </si>
+  <si>
+    <t>Sort4(sort)</t>
+  </si>
+  <si>
+    <t>Sort5(qsort)</t>
+  </si>
+  <si>
+    <t>Ср. знач. По времени</t>
+  </si>
+  <si>
+    <t>Кол-во эл. для  &gt; 30 сек</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
@@ -29,15 +75,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,15 +133,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,7 +270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -181,7 +342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +492,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" customWidth="1"/>
+    <col min="21" max="21" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <f>( SUM(B4:B13) - MIN(B4:B13) - MAX(B4:B13) ) / 8</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <f>( SUM(C4:C13) - MIN(C4:C13) - MAX(C4:C13) ) / 8</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <f>( SUM(D4:D13) - MIN(D4:D13) - MAX(D4:D13) ) / 8</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f>( SUM(E4:E13) - MIN(E4:E13) - MAX(E4:E13) ) / 8</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:U15" si="0">( SUM(F4:F13) - MIN(F4:F13) - MAX(F4:F13) ) / 8</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f>( SUM(O4:O13) - MIN(O4:O13) - MAX(O4:O13) ) / 8</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Время работы сортировок.xlsx
+++ b/Время работы сортировок.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A2:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,17 +510,17 @@
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -613,18 +613,42 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="B4" s="3">
+        <v>777</v>
+      </c>
+      <c r="C4" s="3">
+        <v>795</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3209</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3147</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1785</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1834</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7458</v>
+      </c>
+      <c r="I4" s="6">
+        <v>7259</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1098</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1060</v>
+      </c>
+      <c r="L4" s="7">
+        <v>4260</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4381</v>
+      </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -638,18 +662,42 @@
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="3">
+        <v>784</v>
+      </c>
+      <c r="C5" s="3">
+        <v>781</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3084</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3178</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1798</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1793</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7291</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7222</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1046</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1092</v>
+      </c>
+      <c r="L5" s="7">
+        <v>4272</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4274</v>
+      </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -663,18 +711,42 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="3">
+        <v>814</v>
+      </c>
+      <c r="C6" s="3">
+        <v>775</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3142</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3238</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1783</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1782</v>
+      </c>
+      <c r="H6" s="6">
+        <v>7178</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7175</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1059</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1074</v>
+      </c>
+      <c r="L6" s="7">
+        <v>4309</v>
+      </c>
+      <c r="M6" s="7">
+        <v>4362</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -688,18 +760,42 @@
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="3">
+        <v>780</v>
+      </c>
+      <c r="C7" s="3">
+        <v>825</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3085</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3168</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1831</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1791</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7289</v>
+      </c>
+      <c r="I7" s="6">
+        <v>7214</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1043</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1082</v>
+      </c>
+      <c r="L7" s="7">
+        <v>4195</v>
+      </c>
+      <c r="M7" s="7">
+        <v>4227</v>
+      </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -713,18 +809,42 @@
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="B8" s="3">
+        <v>776</v>
+      </c>
+      <c r="C8" s="3">
+        <v>782</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3106</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3176</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1836</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1788</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7449</v>
+      </c>
+      <c r="I8" s="6">
+        <v>7369</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1035</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1046</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4197</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4297</v>
+      </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -738,18 +858,42 @@
       <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="B9" s="3">
+        <v>780</v>
+      </c>
+      <c r="C9" s="3">
+        <v>786</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3125</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3142</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1944</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7457</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7218</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1049</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1072</v>
+      </c>
+      <c r="L9" s="7">
+        <v>4275</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4245</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -763,18 +907,42 @@
       <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="B10" s="3">
+        <v>772</v>
+      </c>
+      <c r="C10" s="3">
+        <v>799</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3262</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3158</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1854</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1856</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7541</v>
+      </c>
+      <c r="I10" s="6">
+        <v>7515</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1096</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1051</v>
+      </c>
+      <c r="L10" s="7">
+        <v>4209</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4319</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -788,18 +956,42 @@
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="B11" s="3">
+        <v>770</v>
+      </c>
+      <c r="C11" s="3">
+        <v>786</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3099</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3160</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1797</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1930</v>
+      </c>
+      <c r="H11" s="6">
+        <v>7318</v>
+      </c>
+      <c r="I11" s="6">
+        <v>7817</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1045</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1050</v>
+      </c>
+      <c r="L11" s="7">
+        <v>4247</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4225</v>
+      </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -813,18 +1005,42 @@
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="B12" s="3">
+        <v>770</v>
+      </c>
+      <c r="C12" s="3">
+        <v>785</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3174</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3133</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1797</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1856</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7411</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7340</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1061</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1060</v>
+      </c>
+      <c r="L12" s="7">
+        <v>4314</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4343</v>
+      </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -838,18 +1054,42 @@
       <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="B13" s="3">
+        <v>792</v>
+      </c>
+      <c r="C13" s="3">
+        <v>784</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3230</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3162</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1841</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1833</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7328</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7235</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1043</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1062</v>
+      </c>
+      <c r="L13" s="7">
+        <v>4175</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4312</v>
+      </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -865,51 +1105,51 @@
       </c>
       <c r="B15" s="3">
         <f>( SUM(B4:B13) - MIN(B4:B13) - MAX(B4:B13) ) / 8</f>
-        <v>0</v>
+        <v>778.875</v>
       </c>
       <c r="C15" s="3">
         <f>( SUM(C4:C13) - MIN(C4:C13) - MAX(C4:C13) ) / 8</f>
-        <v>0</v>
+        <v>787.25</v>
       </c>
       <c r="D15" s="3">
         <f>( SUM(D4:D13) - MIN(D4:D13) - MAX(D4:D13) ) / 8</f>
-        <v>0</v>
+        <v>3146.25</v>
       </c>
       <c r="E15" s="3">
         <f>( SUM(E4:E13) - MIN(E4:E13) - MAX(E4:E13) ) / 8</f>
-        <v>0</v>
+        <v>3161.375</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ref="F15:U15" si="0">( SUM(F4:F13) - MIN(F4:F13) - MAX(F4:F13) ) / 8</f>
-        <v>0</v>
+        <v>1817.375</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1818.875</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7375.125</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7296.5</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1055.25</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1063.875</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4245.5</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4297.375</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="0"/>

--- a/Время работы сортировок.xlsx
+++ b/Время работы сортировок.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Sort1(выбором)</t>
   </si>
@@ -50,16 +50,28 @@
     <t>Sort3(вставка)</t>
   </si>
   <si>
-    <t>Sort4(sort)</t>
-  </si>
-  <si>
-    <t>Sort5(qsort)</t>
-  </si>
-  <si>
     <t>Ср. знач. По времени</t>
   </si>
   <si>
     <t>Кол-во эл. для  &gt; 30 сек</t>
+  </si>
+  <si>
+    <t>Sort4(qsort)</t>
+  </si>
+  <si>
+    <t>Sort5(sort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a (20000 целых чисел (диапазон чисел -10000..10000) </t>
+  </si>
+  <si>
+    <t>c (40000 целых чисел (диапазон чисел -10000..10000)</t>
+  </si>
+  <si>
+    <t>b (20000 целых чисел (диапазон чисел -100..100)</t>
+  </si>
+  <si>
+    <t>d (40000 целых чисел (диапазон чисел -100..100)</t>
   </si>
 </sst>
 </file>
@@ -198,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -212,6 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U16"/>
+  <dimension ref="A2:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -649,14 +662,30 @@
       <c r="M4" s="7">
         <v>4381</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="N4" s="8">
+        <v>58</v>
+      </c>
+      <c r="O4" s="8">
+        <v>27</v>
+      </c>
+      <c r="P4" s="8">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>34</v>
+      </c>
+      <c r="R4" s="10">
+        <v>89</v>
+      </c>
+      <c r="S4" s="10">
+        <v>42</v>
+      </c>
+      <c r="T4" s="10">
+        <v>100</v>
+      </c>
+      <c r="U4" s="10">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -698,14 +727,30 @@
       <c r="M5" s="7">
         <v>4274</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="N5" s="8">
+        <v>57</v>
+      </c>
+      <c r="O5" s="8">
+        <v>28</v>
+      </c>
+      <c r="P5" s="8">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>34</v>
+      </c>
+      <c r="R5" s="10">
+        <v>89</v>
+      </c>
+      <c r="S5" s="10">
+        <v>42</v>
+      </c>
+      <c r="T5" s="10">
+        <v>101</v>
+      </c>
+      <c r="U5" s="10">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -747,14 +792,30 @@
       <c r="M6" s="7">
         <v>4362</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
+      <c r="N6" s="8">
+        <v>58</v>
+      </c>
+      <c r="O6" s="8">
+        <v>28</v>
+      </c>
+      <c r="P6" s="8">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>33</v>
+      </c>
+      <c r="R6" s="10">
+        <v>89</v>
+      </c>
+      <c r="S6" s="10">
+        <v>42</v>
+      </c>
+      <c r="T6" s="10">
+        <v>99</v>
+      </c>
+      <c r="U6" s="10">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -796,14 +857,30 @@
       <c r="M7" s="7">
         <v>4227</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
+      <c r="N7" s="8">
+        <v>57</v>
+      </c>
+      <c r="O7" s="8">
+        <v>28</v>
+      </c>
+      <c r="P7" s="8">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>33</v>
+      </c>
+      <c r="R7" s="10">
+        <v>89</v>
+      </c>
+      <c r="S7" s="10">
+        <v>42</v>
+      </c>
+      <c r="T7" s="10">
+        <v>99</v>
+      </c>
+      <c r="U7" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -845,14 +922,30 @@
       <c r="M8" s="7">
         <v>4297</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="N8" s="8">
+        <v>58</v>
+      </c>
+      <c r="O8" s="8">
+        <v>28</v>
+      </c>
+      <c r="P8" s="8">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>35</v>
+      </c>
+      <c r="R8" s="10">
+        <v>88</v>
+      </c>
+      <c r="S8" s="10">
+        <v>42</v>
+      </c>
+      <c r="T8" s="10">
+        <v>103</v>
+      </c>
+      <c r="U8" s="10">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -894,14 +987,30 @@
       <c r="M9" s="7">
         <v>4245</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
+      <c r="N9" s="8">
+        <v>57</v>
+      </c>
+      <c r="O9" s="8">
+        <v>29</v>
+      </c>
+      <c r="P9" s="8">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>33</v>
+      </c>
+      <c r="R9" s="10">
+        <v>89</v>
+      </c>
+      <c r="S9" s="10">
+        <v>42</v>
+      </c>
+      <c r="T9" s="10">
+        <v>100</v>
+      </c>
+      <c r="U9" s="10">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -943,14 +1052,30 @@
       <c r="M10" s="7">
         <v>4319</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
+      <c r="N10" s="8">
+        <v>60</v>
+      </c>
+      <c r="O10" s="8">
+        <v>28</v>
+      </c>
+      <c r="P10" s="8">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>34</v>
+      </c>
+      <c r="R10" s="10">
+        <v>88</v>
+      </c>
+      <c r="S10" s="10">
+        <v>42</v>
+      </c>
+      <c r="T10" s="10">
+        <v>100</v>
+      </c>
+      <c r="U10" s="10">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -992,14 +1117,30 @@
       <c r="M11" s="7">
         <v>4225</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
+      <c r="N11" s="8">
+        <v>58</v>
+      </c>
+      <c r="O11" s="8">
+        <v>28</v>
+      </c>
+      <c r="P11" s="8">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>33</v>
+      </c>
+      <c r="R11" s="10">
+        <v>88</v>
+      </c>
+      <c r="S11" s="10">
+        <v>43</v>
+      </c>
+      <c r="T11" s="10">
+        <v>100</v>
+      </c>
+      <c r="U11" s="10">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -1041,14 +1182,30 @@
       <c r="M12" s="7">
         <v>4343</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
+      <c r="N12" s="8">
+        <v>58</v>
+      </c>
+      <c r="O12" s="8">
+        <v>28</v>
+      </c>
+      <c r="P12" s="8">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>33</v>
+      </c>
+      <c r="R12" s="10">
+        <v>88</v>
+      </c>
+      <c r="S12" s="10">
+        <v>42</v>
+      </c>
+      <c r="T12" s="10">
+        <v>100</v>
+      </c>
+      <c r="U12" s="10">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -1090,18 +1247,34 @@
       <c r="M13" s="7">
         <v>4312</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
+      <c r="N13" s="8">
+        <v>58</v>
+      </c>
+      <c r="O13" s="8">
+        <v>29</v>
+      </c>
+      <c r="P13" s="8">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>33</v>
+      </c>
+      <c r="R13" s="10">
+        <v>88</v>
+      </c>
+      <c r="S13" s="10">
+        <v>42</v>
+      </c>
+      <c r="T13" s="10">
+        <v>102</v>
+      </c>
+      <c r="U13" s="10">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3">
         <f>( SUM(B4:B13) - MIN(B4:B13) - MAX(B4:B13) ) / 8</f>
@@ -1153,40 +1326,40 @@
       </c>
       <c r="N15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.75</v>
       </c>
       <c r="O15" s="8">
         <f>( SUM(O4:O13) - MIN(O4:O13) - MAX(O4:O13) ) / 8</f>
-        <v>0</v>
+        <v>28.125</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69.125</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.375</v>
       </c>
       <c r="R15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="S15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="T15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100.25</v>
       </c>
       <c r="U15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1209,6 +1382,26 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
